--- a/public/templates/flashcards_template.xlsx
+++ b/public/templates/flashcards_template.xlsx
@@ -397,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -415,7 +415,7 @@
         <v>문제 (back)</v>
       </c>
       <c r="C1" t="str">
-        <v>과목 ID (선택사항)</v>
+        <v>과목 이름 (선택사항)</v>
       </c>
     </row>
     <row r="2">
@@ -426,7 +426,7 @@
         <v>사과는 영어로?</v>
       </c>
       <c r="C2" t="str">
-        <v>1</v>
+        <v>영어</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>책은 영어로?</v>
       </c>
       <c r="C3" t="str">
-        <v>1</v>
+        <v>영어</v>
       </c>
     </row>
     <row r="4">
@@ -448,7 +448,7 @@
         <v>컴퓨터는 영어로?</v>
       </c>
       <c r="C4" t="str">
-        <v>2</v>
+        <v>컴퓨터 과학</v>
       </c>
     </row>
     <row r="5">
@@ -459,7 +459,7 @@
         <v>하늘은 영어로?</v>
       </c>
       <c r="C5" t="str">
-        <v>2</v>
+        <v>영어</v>
       </c>
     </row>
     <row r="6">
@@ -470,34 +470,45 @@
         <v>행복한은 영어로?</v>
       </c>
       <c r="C6" t="str">
-        <v>3</v>
+        <v>영어</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v/>
+        <v>mitochondria</v>
       </c>
       <c r="B7" t="str">
-        <v/>
+        <v>미토콘드리아는 세포의 무엇인가?</v>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>생물학</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>여기서부터 입력하세요</v>
+        <v/>
       </c>
       <c r="B8" t="str">
-        <v>두 번째 열에 문제 입력</v>
+        <v/>
       </c>
       <c r="C8" t="str">
         <v/>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>여기서부터 입력하세요</v>
+      </c>
+      <c r="B9" t="str">
+        <v>두 번째 열에 문제 입력</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
   </ignoredErrors>
 </worksheet>
 </file>